--- a/genshin/430274415037809127_2020-09-02_12-04-29.xlsx
+++ b/genshin/430274415037809127_2020-09-02_12-04-29.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>3445746755</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-22 08:50:51</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44308.36864583333</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -618,10 +632,8 @@
           <t>3446970667</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-09-03 21:00:09</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44077.87510416667</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -681,10 +693,8 @@
           <t>3445779837</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-03 18:17:54</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44077.76243055556</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -748,10 +758,8 @@
           <t>3446011115</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-03 18:03:04</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44077.75212962963</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -827,10 +835,8 @@
           <t>3445938426</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:43:52</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44077.6137962963</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -894,10 +900,8 @@
           <t>3446763501</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:01:06</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44077.58409722222</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -965,10 +969,8 @@
           <t>3445809624</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:00:11</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44077.58346064815</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1036,10 +1038,8 @@
           <t>3445872982</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-03 13:59:43</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44077.58313657407</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1107,10 +1107,8 @@
           <t>3446011115</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-03 13:59:02</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44077.58266203704</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1178,10 +1176,8 @@
           <t>3446119495</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-03 13:58:32</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44077.58231481481</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1249,10 +1245,8 @@
           <t>3445936656</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-03 13:50:54</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44077.57701388889</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1320,10 +1314,8 @@
           <t>3445936656</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-03 13:20:24</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44077.55583333333</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1395,10 +1387,8 @@
           <t>3445938426</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-03 13:15:59</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44077.55276620371</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1466,10 +1456,8 @@
           <t>3445936656</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-03 13:14:43</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44077.55188657407</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
@@ -1537,10 +1525,8 @@
           <t>3448036828</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-03 12:39:30</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44077.52743055556</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1608,10 +1594,8 @@
           <t>3445938426</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-03 12:23:53</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44077.51658564815</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1675,10 +1659,8 @@
           <t>3445936656</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-03 11:51:16</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44077.49393518519</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1750,10 +1732,8 @@
           <t>3446105511</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-03 11:29:40</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44077.47893518519</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1821,10 +1801,8 @@
           <t>3445936656</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-03 11:28:18</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44077.47798611111</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1892,10 +1870,8 @@
           <t>3445809948</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-03 11:26:36</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44077.47680555555</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1971,10 +1947,8 @@
           <t>3445809948</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-03 11:25:41</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44077.47616898148</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2042,10 +2016,8 @@
           <t>3445881837</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-03 11:24:38</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44077.47543981481</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2113,10 +2085,8 @@
           <t>3448036828</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-03 11:00:52</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44077.45893518518</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2184,10 +2154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-03 09:01:11</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44077.37582175926</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2263,10 +2231,8 @@
           <t>3445981572</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-03 07:33:41</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44077.31505787037</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2345,10 +2311,8 @@
           <t>3448570929</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-03 01:47:54</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44077.07493055556</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2416,10 +2380,8 @@
           <t>3448035748</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-03 01:31:55</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44077.06383101852</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2483,10 +2445,8 @@
           <t>3448468350</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-03 00:56:52</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44077.03949074074</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2562,10 +2522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-03 00:52:40</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44077.03657407407</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2641,10 +2599,8 @@
           <t>3445904414</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-02 23:16:45</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44076.96996527778</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2722,10 +2678,8 @@
           <t>3448069520</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-02 23:05:08</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44076.96189814815</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2793,10 +2747,8 @@
           <t>3445987924</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-02 23:04:35</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44076.9615162037</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2872,10 +2824,8 @@
           <t>3448041353</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-02 22:57:09</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44076.95635416666</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2943,10 +2893,8 @@
           <t>3448036828</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-02 22:56:53</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44076.95616898148</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3014,10 +2962,8 @@
           <t>3448036318</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-02 22:56:33</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44076.9559375</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3085,10 +3031,8 @@
           <t>3448035748</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-02 22:56:10</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44076.95567129629</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3156,10 +3100,8 @@
           <t>3448019012</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-02 22:54:57</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44076.95482638889</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3227,10 +3169,8 @@
           <t>3445987924</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-02 22:50:33</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44076.95177083334</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3298,10 +3238,8 @@
           <t>3447438453</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-02 20:40:05</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44076.86116898148</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3369,10 +3307,8 @@
           <t>3447396041</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-02 20:27:38</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44076.85252314815</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3440,10 +3376,8 @@
           <t>3446730343</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-02 20:26:58</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44076.85206018519</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3515,10 +3449,8 @@
           <t>3447357804</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-02 20:19:26</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44076.8468287037</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3582,10 +3514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-02 20:11:35</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44076.84137731481</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3653,10 +3583,8 @@
           <t>3445754979</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-02 20:03:58</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44076.83608796296</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3720,10 +3648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-02 19:03:12</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44076.79388888889</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3799,10 +3725,8 @@
           <t>3446105511</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:55:41</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44076.78866898148</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3866,10 +3790,8 @@
           <t>3447013580</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:54:48</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44076.78805555555</v>
       </c>
       <c r="I48" t="n">
         <v>2</v>
@@ -3940,10 +3862,8 @@
           <t>3446974757</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:47:24</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44076.78291666666</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4007,10 +3927,8 @@
           <t>3446970667</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:44:21</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44076.78079861111</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4078,10 +3996,8 @@
           <t>3445936656</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:24:31</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44076.76702546296</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4153,10 +4069,8 @@
           <t>3445769331</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:09:07</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44076.75633101852</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4232,10 +4146,8 @@
           <t>3445769331</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:04:29</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44076.75311342593</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4311,10 +4223,8 @@
           <t>3445769331</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:03:44</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44076.75259259259</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4391,10 +4301,8 @@
           <t>3446799157</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:02:19</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44076.75160879629</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4462,10 +4370,8 @@
           <t>3446730343</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:01:42</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44076.75118055556</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4541,10 +4447,8 @@
           <t>3445769331</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:58:02</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44076.74863425926</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4620,10 +4524,8 @@
           <t>3446781106</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:56:11</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44076.74734953704</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4687,10 +4589,8 @@
           <t>3446769472</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:54:52</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44076.74643518519</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4754,10 +4654,8 @@
           <t>3445769331</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:54:05</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44076.7458912037</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4829,10 +4727,8 @@
           <t>3446763501</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:53:57</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44076.74579861111</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4908,10 +4804,8 @@
           <t>3446730343</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:53:01</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44076.74515046296</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4983,10 +4877,8 @@
           <t>3446766114</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:52:09</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44076.74454861111</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5050,10 +4942,8 @@
           <t>3446424454</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:45:44</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44076.74009259259</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5117,10 +5007,8 @@
           <t>3446730343</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:42:49</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44076.73806712963</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5196,10 +5084,8 @@
           <t>3446724714</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:42:29</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44076.73783564815</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5275,10 +5161,8 @@
           <t>3445781546</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:42:08</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44076.7375925926</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5354,10 +5238,8 @@
           <t>3445781546</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:41:30</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44076.73715277778</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5425,10 +5307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:36:03</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44076.73336805555</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5504,10 +5384,8 @@
           <t>3446004706</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:33:17</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44076.73144675926</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5575,10 +5453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:17:47</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44076.72068287037</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5646,10 +5522,8 @@
           <t>3446633851</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:14:58</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44076.71872685185</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5717,10 +5591,8 @@
           <t>3445809948</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:12:12</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44076.71680555555</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5796,10 +5668,8 @@
           <t>3445829776</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:06:02</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44076.71252314815</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5863,10 +5733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:01:32</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44076.70939814814</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5926,10 +5794,8 @@
           <t>3446011115</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:00:21</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44076.70857638889</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6005,10 +5871,8 @@
           <t>3445809948</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:59:16</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44076.70782407407</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6076,10 +5940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:58:54</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44076.70756944444</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6143,10 +6005,8 @@
           <t>3446119495</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:53:38</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44076.70391203704</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6222,10 +6082,8 @@
           <t>3446134418</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:28:18</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44076.68631944444</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6293,10 +6151,8 @@
           <t>3446119495</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:27:56</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44076.68606481481</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6364,10 +6220,8 @@
           <t>3445829119</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:26:56</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44076.68537037037</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6435,10 +6289,8 @@
           <t>3445769331</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:26:13</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44076.68487268518</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6514,10 +6366,8 @@
           <t>3446011115</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:23:30</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44076.68298611111</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -6585,10 +6435,8 @@
           <t>3446015267</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:23:00</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44076.68263888889</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6656,10 +6504,8 @@
           <t>3445809624</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:22:43</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44076.68244212963</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6735,10 +6581,8 @@
           <t>3445872982</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:22:42</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44076.68243055556</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6814,10 +6658,8 @@
           <t>3445769331</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:22:05</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44076.68200231482</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6893,10 +6735,8 @@
           <t>3446004706</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:21:58</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44076.68192129629</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6964,10 +6804,8 @@
           <t>3445809948</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:21:58</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44076.68192129629</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7043,10 +6881,8 @@
           <t>3446004557</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:21:24</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44076.68152777778</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7114,10 +6950,8 @@
           <t>3445872982</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:20:55</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44076.68119212963</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7185,10 +7019,8 @@
           <t>3445760524</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:20:19</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44076.68077546296</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7252,10 +7084,8 @@
           <t>3446001047</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:20:16</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44076.68074074074</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7323,10 +7153,8 @@
           <t>3445809624</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:19:38</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44076.68030092592</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7394,10 +7222,8 @@
           <t>3445881837</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:19:29</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44076.68019675926</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7473,10 +7299,8 @@
           <t>3445769331</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:19:06</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44076.67993055555</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7552,10 +7376,8 @@
           <t>3445769331</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:18:15</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44076.67934027778</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7631,10 +7453,8 @@
           <t>3445950233</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:18:11</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44076.67929398148</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7702,10 +7522,8 @@
           <t>3445881837</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:16:42</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44076.67826388889</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7773,10 +7591,8 @@
           <t>3445769331</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:16:16</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44076.67796296296</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7848,10 +7664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:11:07</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44076.67438657407</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7919,10 +7733,8 @@
           <t>3445881837</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:07:24</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44076.67180555555</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7998,10 +7810,8 @@
           <t>3445809948</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:05:20</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44076.67037037037</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8070,10 +7880,8 @@
           <t>3446424454</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:03:49</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44076.66931712963</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8145,10 +7953,8 @@
           <t>3445769331</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:03:04</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44076.6687962963</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8224,10 +8030,8 @@
           <t>3446421510</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:00:38</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44076.66710648148</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8299,10 +8103,8 @@
           <t>3445769331</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:58:28</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44076.66560185186</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8374,10 +8176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:55:09</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44076.66329861111</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -8445,10 +8245,8 @@
           <t>3445781546</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:52:38</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44076.66155092593</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8524,10 +8322,8 @@
           <t>3445737006</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:51:40</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44076.66087962963</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8595,10 +8391,8 @@
           <t>3446120898</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:51:25</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44076.66070601852</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8666,10 +8460,8 @@
           <t>3446105511</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:50:48</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44076.66027777778</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8737,10 +8529,8 @@
           <t>3445763171</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:49:59</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44076.65971064815</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8812,10 +8602,8 @@
           <t>3446008823</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:49:55</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44076.65966435185</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8883,10 +8671,8 @@
           <t>3445774062</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:49:53</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44076.6596412037</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8958,10 +8744,8 @@
           <t>3446291658</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:44:49</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44076.65612268518</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9029,10 +8813,8 @@
           <t>3446291658</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:43:31</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44076.65521990741</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9108,10 +8890,8 @@
           <t>3446376611</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:43:28</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44076.65518518518</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9179,10 +8959,8 @@
           <t>3445883888</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:42:41</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44076.65464120371</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9254,10 +9032,8 @@
           <t>3446015254</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:29:12</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44076.64527777778</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9325,10 +9101,8 @@
           <t>3445938426</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:27:32</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44076.64412037037</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9396,10 +9170,8 @@
           <t>3445809948</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:27:21</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44076.64399305556</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9475,10 +9247,8 @@
           <t>3445936656</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:26:53</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44076.64366898148</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9546,10 +9316,8 @@
           <t>3445781546</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:26:36</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44076.64347222223</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9613,10 +9381,8 @@
           <t>3445911629</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:26:26</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44076.64335648148</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9684,10 +9450,8 @@
           <t>3445881837</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:24:57</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44076.64232638889</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9755,10 +9519,8 @@
           <t>3445809948</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:24:36</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44076.64208333333</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9826,10 +9588,8 @@
           <t>3445763411</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:24:09</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44076.64177083333</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9897,10 +9657,8 @@
           <t>3445746774</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:22:31</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44076.64063657408</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9968,10 +9726,8 @@
           <t>3446291658</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:10:59</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44076.63262731482</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10039,10 +9795,8 @@
           <t>3446289484</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:10:37</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44076.63237268518</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10106,10 +9860,8 @@
           <t>3445737006</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:07:44</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44076.63037037037</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10177,10 +9929,8 @@
           <t>3445883276</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:07:19</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44076.63008101852</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10256,10 +10006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:04:20</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44076.62800925926</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10335,10 +10083,8 @@
           <t>3445737006</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:49:36</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44076.61777777778</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10415,10 +10161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:47:45</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44076.61649305555</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10486,10 +10230,8 @@
           <t>3445781546</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:43:22</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44076.61344907407</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10565,10 +10307,8 @@
           <t>3446059023</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:42:40</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44076.61296296296</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10632,10 +10372,8 @@
           <t>3446194126</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:42:22</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44076.61275462963</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10711,10 +10449,8 @@
           <t>3445781546</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:40:09</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44076.61121527778</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10778,10 +10514,8 @@
           <t>3445765272</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:36:09</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44076.6084375</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10853,10 +10587,8 @@
           <t>3445882318</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:34:45</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44076.60746527778</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10920,10 +10652,8 @@
           <t>3446206037</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:34:09</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44076.60704861111</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10991,10 +10721,8 @@
           <t>3446194126</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:31:53</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44076.60547453703</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11062,10 +10790,8 @@
           <t>3446184511</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:28:06</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44076.60284722222</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11129,10 +10855,8 @@
           <t>3446164724</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:20:57</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44076.59788194444</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11208,10 +10932,8 @@
           <t>3446163152</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:19:03</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44076.5965625</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11287,10 +11009,8 @@
           <t>3446166296</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:18:18</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44076.59604166666</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11350,10 +11070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:15:18</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44076.59395833333</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11417,10 +11135,8 @@
           <t>3445737095</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:14:20</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44076.59328703704</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11488,10 +11204,8 @@
           <t>3445734523</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:13:42</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44076.59284722222</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11559,10 +11273,8 @@
           <t>3446143448</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:13:06</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44076.59243055555</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11634,10 +11346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:12:32</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44076.59203703704</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11701,10 +11411,8 @@
           <t>3445737006</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:09:44</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44076.5900925926</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11772,10 +11480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:09:11</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44076.58971064815</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11847,10 +11553,8 @@
           <t>3446134418</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:09:09</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44076.5896875</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11914,10 +11618,8 @@
           <t>3445781546</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:07:12</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44076.58833333333</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11993,10 +11695,8 @@
           <t>3445781546</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:06:35</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44076.58790509259</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -12072,10 +11772,8 @@
           <t>3445781546</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:05:59</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44076.58748842592</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12139,10 +11837,8 @@
           <t>3446119495</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:03:42</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44076.58590277778</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12218,10 +11914,8 @@
           <t>3445737006</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:03:29</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44076.58575231482</v>
       </c>
       <c r="I162" t="n">
         <v>2</v>
@@ -12297,10 +11991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:03:21</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44076.58565972222</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12368,10 +12060,8 @@
           <t>3446118722</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:02:54</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44076.58534722222</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12439,10 +12129,8 @@
           <t>3446121919</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:01:54</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44076.58465277778</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12510,10 +12198,8 @@
           <t>3446120898</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:00:48</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44076.58388888889</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12581,10 +12267,8 @@
           <t>3446111668</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:59:58</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44076.58331018518</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12652,10 +12336,8 @@
           <t>3446109948</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:59:48</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44076.58319444444</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12723,10 +12405,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:57:41</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44076.58172453703</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12802,10 +12482,8 @@
           <t>3445781546</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:55:59</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44076.58054398148</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12881,10 +12559,8 @@
           <t>3445956557</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:55:07</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44076.57994212963</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12960,10 +12636,8 @@
           <t>3446105511</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:54:59</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44076.57984953704</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13027,10 +12701,8 @@
           <t>3446095855</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:53:41</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44076.57894675926</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13094,10 +12766,8 @@
           <t>3445781546</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:53:22</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44076.57872685185</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13165,10 +12835,8 @@
           <t>3446093916</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:53:18</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44076.57868055555</v>
       </c>
       <c r="I175" t="n">
         <v>5</v>
@@ -13236,10 +12904,8 @@
           <t>3445781546</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:52:13</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44076.57792824074</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13307,10 +12973,8 @@
           <t>3446084303</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:52:02</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44076.57780092592</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13374,10 +13038,8 @@
           <t>3446082820</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:50:30</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44076.57673611111</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13449,10 +13111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:50:21</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44076.57663194444</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13524,10 +13184,8 @@
           <t>3445769331</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:49:52</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44076.5762962963</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13600,10 +13258,8 @@
           <t>3445769331</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:49:37</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44076.57612268518</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13676,10 +13332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:48:41</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44076.57547453704</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13747,10 +13401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:47:47</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44076.57484953704</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13814,10 +13466,8 @@
           <t>3445829119</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:46:35</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44076.5740162037</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13889,10 +13539,8 @@
           <t>3446068687</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:46:03</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44076.57364583333</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13960,10 +13608,8 @@
           <t>3445800514</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:44:54</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44076.57284722223</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14039,10 +13685,8 @@
           <t>3446071703</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:44:49</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44076.57278935185</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14106,10 +13750,8 @@
           <t>3446064992</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:43:47</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44076.57207175926</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14181,10 +13823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:42:13</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44076.57098379629</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14252,10 +13892,8 @@
           <t>3446059023</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:42:02</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44076.57085648148</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14323,10 +13961,8 @@
           <t>3446061924</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:40:36</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44076.56986111111</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14402,10 +14038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:40:34</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44076.56983796296</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14469,10 +14103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:39:21</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44076.56899305555</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14532,10 +14164,8 @@
           <t>3446050624</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:37:41</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44076.56783564815</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14611,10 +14241,8 @@
           <t>3446048951</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:37:30</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44076.56770833334</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14678,10 +14306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:37:03</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44076.56739583334</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14757,10 +14383,8 @@
           <t>3446044157</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:37:01</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44076.56737268518</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14828,10 +14452,8 @@
           <t>3446039548</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:36:39</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44076.56711805556</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14895,10 +14517,8 @@
           <t>3446047627</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:36:10</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44076.5667824074</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14970,10 +14590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:35:45</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44076.56649305556</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15042,10 +14660,8 @@
           <t>3445784968</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:32:22</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44076.56414351852</v>
       </c>
       <c r="I201" t="n">
         <v>3</v>
@@ -15113,10 +14729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:32:05</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44076.56394675926</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15184,10 +14798,8 @@
           <t>3445769331</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:31:46</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44076.56372685185</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15263,10 +14875,8 @@
           <t>3446022614</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:31:33</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44076.56357638889</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15342,10 +14952,8 @@
           <t>3445772323</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:31:20</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44076.56342592592</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15417,10 +15025,8 @@
           <t>3445781546</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:31:17</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44076.5633912037</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15496,10 +15102,8 @@
           <t>3446024049</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:31:08</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44076.56328703704</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15575,10 +15179,8 @@
           <t>3446022614</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:29:46</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44076.56233796296</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15642,10 +15244,8 @@
           <t>3446026440</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:29:21</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44076.56204861111</v>
       </c>
       <c r="I209" t="n">
         <v>7</v>
@@ -15709,10 +15309,8 @@
           <t>3445781546</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:28:12</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44076.56125</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15776,10 +15374,8 @@
           <t>3446014948</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:27:56</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44076.56106481481</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15851,10 +15447,8 @@
           <t>3446009406</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:26:48</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44076.56027777777</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15926,10 +15520,8 @@
           <t>3446018110</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:26:40</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44076.56018518518</v>
       </c>
       <c r="I213" t="n">
         <v>5</v>
@@ -16006,10 +15598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:26:34</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44076.56011574074</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16077,10 +15667,8 @@
           <t>3446008823</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:26:15</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44076.55989583334</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16144,10 +15732,8 @@
           <t>3445769331</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:25:42</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44076.55951388889</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -16219,10 +15805,8 @@
           <t>3445830766</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:25:41</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44076.55950231481</v>
       </c>
       <c r="I217" t="n">
         <v>2</v>
@@ -16294,10 +15878,8 @@
           <t>3446007877</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:25:21</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44076.55927083334</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16369,10 +15951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:25:08</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44076.55912037037</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16448,10 +16028,8 @@
           <t>3446007018</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:24:33</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44076.55871527778</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16523,10 +16101,8 @@
           <t>3446011115</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:24:22</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44076.55858796297</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16602,10 +16178,8 @@
           <t>3445729612</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:24:19</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44076.55855324074</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -16681,10 +16255,8 @@
           <t>3446015267</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:23:55</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44076.55827546296</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16760,10 +16332,8 @@
           <t>3446015254</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:23:54</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44076.55826388889</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -16831,10 +16401,8 @@
           <t>3446010429</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:23:43</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44076.55813657407</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -16906,10 +16474,8 @@
           <t>3446010104</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:23:25</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44076.55792824074</v>
       </c>
       <c r="I226" t="n">
         <v>2</v>
@@ -16981,10 +16547,8 @@
           <t>3446010055</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:23:23</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44076.5579050926</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17060,10 +16624,8 @@
           <t>3446004706</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:23:23</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44076.5579050926</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17131,10 +16693,8 @@
           <t>3446004557</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:23:14</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44076.55780092593</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17206,10 +16766,8 @@
           <t>3445999436</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:22:46</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44076.55747685185</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17281,10 +16839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:22:44</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44076.5574537037</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17348,10 +16904,8 @@
           <t>3445998802</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:22:11</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44076.55707175926</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17427,10 +16981,8 @@
           <t>3445902118</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:21:51</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44076.55684027778</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17498,10 +17050,8 @@
           <t>3445872982</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:21:40</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44076.55671296296</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17577,10 +17127,8 @@
           <t>3445996595</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:20:09</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44076.55565972222</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17648,10 +17196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:20:00</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44076.55555555555</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17727,10 +17273,8 @@
           <t>3445872982</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:20:00</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44076.55555555555</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17798,10 +17342,8 @@
           <t>3446001047</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:19:53</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44076.55547453704</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17869,10 +17411,8 @@
           <t>3445904414</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:19:33</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44076.55524305555</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17944,10 +17484,8 @@
           <t>3445845536</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:19:33</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44076.55524305555</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18015,10 +17553,8 @@
           <t>3445809624</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:19:14</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44076.55502314815</v>
       </c>
       <c r="I241" t="n">
         <v>1</v>
@@ -18094,10 +17630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:18:27</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44076.55447916667</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18161,10 +17695,8 @@
           <t>3445989447</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:18:25</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44076.55445601852</v>
       </c>
       <c r="I243" t="n">
         <v>7</v>
@@ -18236,10 +17768,8 @@
           <t>3445989437</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:18:24</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44076.55444444445</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18316,10 +17846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:18:06</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44076.55423611111</v>
       </c>
       <c r="I245" t="n">
         <v>2</v>
@@ -18383,10 +17911,8 @@
           <t>3445842637</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:17:54</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44076.55409722222</v>
       </c>
       <c r="I246" t="n">
         <v>2</v>
@@ -18460,10 +17986,8 @@
           <t>3445983737</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:17:37</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44076.55390046296</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18539,10 +18063,8 @@
           <t>3445979203</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:17:29</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44076.55380787037</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18610,10 +18132,8 @@
           <t>3445978962</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:17:16</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44076.55365740741</v>
       </c>
       <c r="I249" t="n">
         <v>4</v>
@@ -18689,10 +18209,8 @@
           <t>3445978858</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:17:11</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44076.55359953704</v>
       </c>
       <c r="I250" t="n">
         <v>2</v>
@@ -18768,10 +18286,8 @@
           <t>3445987924</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:17:04</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44076.55351851852</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18847,10 +18363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:17:01</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44076.5534837963</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18922,10 +18436,8 @@
           <t>3445986861</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:16:06</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44076.55284722222</v>
       </c>
       <c r="I253" t="n">
         <v>2</v>
@@ -18993,10 +18505,8 @@
           <t>3445851976</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:15:50</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44076.55266203704</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19060,10 +18570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:15:45</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44076.55260416667</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19139,10 +18647,8 @@
           <t>3445981572</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:15:43</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44076.55258101852</v>
       </c>
       <c r="I256" t="n">
         <v>6</v>
@@ -19214,10 +18720,8 @@
           <t>3445981340</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:15:31</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44076.55244212963</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19294,10 +18798,8 @@
           <t>3445976738</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:15:17</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44076.55228009259</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19373,10 +18875,8 @@
           <t>3445975630</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:14:17</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44076.55158564815</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19452,10 +18952,8 @@
           <t>3445829119</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:14:15</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44076.5515625</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19523,10 +19021,8 @@
           <t>3445974137</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:13:37</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44076.55112268519</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19602,10 +19098,8 @@
           <t>3445963651</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:12:32</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44076.55037037037</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19681,10 +19175,8 @@
           <t>3445972474</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:12:13</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44076.55015046296</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19757,10 +19249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:11:34</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44076.54969907407</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19832,10 +19322,8 @@
           <t>3445809624</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:11:21</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44076.54954861111</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19903,10 +19391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:11:12</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44076.54944444444</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19974,10 +19460,8 @@
           <t>3445745764</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:10:48</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44076.54916666666</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20045,10 +19529,8 @@
           <t>3445746755</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:10:17</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44076.54880787037</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20116,10 +19598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:09:39</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44076.54836805556</v>
       </c>
       <c r="I269" t="n">
         <v>3</v>
@@ -20191,10 +19671,8 @@
           <t>3445854679</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:09:06</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44076.54798611111</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20266,10 +19744,8 @@
           <t>3445957660</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:08:18</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44076.54743055555</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20345,10 +19821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:07:40</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44076.54699074074</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20420,10 +19894,8 @@
           <t>3445956557</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:07:24</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44076.54680555555</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20491,10 +19963,8 @@
           <t>3445921446</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:07:23</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44076.54679398148</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20566,10 +20036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:06:47</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44076.54637731481</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20633,10 +20101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:06:37</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44076.54626157408</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20704,10 +20170,8 @@
           <t>3445950804</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:06:34</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44076.54622685185</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20783,10 +20247,8 @@
           <t>3445950233</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:06:06</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44076.54590277778</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20862,10 +20324,8 @@
           <t>3445745764</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:05:55</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44076.54577546296</v>
       </c>
       <c r="I279" t="n">
         <v>1</v>
@@ -20933,10 +20393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:05:36</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44076.54555555555</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -21012,10 +20470,8 @@
           <t>3445772323</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:05:14</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44076.54530092593</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21079,10 +20535,8 @@
           <t>3445734308</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:04:58</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44076.54511574074</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21150,10 +20604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:04:48</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44076.545</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21217,10 +20669,8 @@
           <t>3445938426</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:04:35</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44076.54484953704</v>
       </c>
       <c r="I284" t="n">
         <v>2</v>
@@ -21284,10 +20734,8 @@
           <t>3445883276</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:04:22</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44076.54469907407</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21363,10 +20811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:03:35</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44076.54415509259</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21439,10 +20885,8 @@
           <t>3445936847</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:03:19</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44076.5439699074</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21510,10 +20954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:03:10</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44076.54386574074</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21585,10 +21027,8 @@
           <t>3445936656</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:03:08</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44076.54384259259</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21660,10 +21100,8 @@
           <t>3445921446</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:02:58</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44076.54372685185</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -21739,10 +21177,8 @@
           <t>3445931984</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:02:53</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44076.54366898148</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21818,10 +21254,8 @@
           <t>3445921446</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:02:29</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44076.5433912037</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21897,10 +21331,8 @@
           <t>3445940080</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:02:16</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44076.54324074074</v>
       </c>
       <c r="I293" t="n">
         <v>1</v>
@@ -21968,10 +21400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:01:15</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44076.54253472222</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22047,10 +21477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:00:45</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44076.5421875</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22118,10 +21546,8 @@
           <t>3445918653</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-09-02 13:00:15</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44076.54184027778</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22189,10 +21615,8 @@
           <t>3445927077</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:59:52</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44076.54157407407</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22268,10 +21692,8 @@
           <t>3445922438</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:59:42</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44076.54145833333</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22339,10 +21761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:59:34</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44076.54136574074</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22418,10 +21838,8 @@
           <t>3445921446</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:58:53</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44076.5408912037</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22493,10 +21911,8 @@
           <t>3445781546</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:58:51</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44076.54086805556</v>
       </c>
       <c r="I301" t="n">
         <v>1</v>
@@ -22572,10 +21988,8 @@
           <t>3445882318</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:57:57</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44076.54024305556</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22651,10 +22065,8 @@
           <t>3445781546</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:57:46</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44076.54011574074</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22730,10 +22142,8 @@
           <t>3445891483</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:57:18</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44076.53979166667</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22809,10 +22219,8 @@
           <t>3445904414</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:56:56</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44076.53953703704</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22890,10 +22298,8 @@
           <t>3445913099</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:56:41</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44076.53936342592</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22965,10 +22371,8 @@
           <t>3445766762</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:56:35</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44076.53929398148</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -23044,10 +22448,8 @@
           <t>3445908289</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:56:21</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44076.53913194445</v>
       </c>
       <c r="I308" t="n">
         <v>7</v>
@@ -23119,10 +22521,8 @@
           <t>3445911629</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:55:32</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44076.53856481481</v>
       </c>
       <c r="I309" t="n">
         <v>1</v>
@@ -23198,10 +22598,8 @@
           <t>3445901663</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:55:09</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44076.53829861111</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -23269,10 +22667,8 @@
           <t>3445902118</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:55:07</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44076.53827546296</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23348,10 +22744,8 @@
           <t>3445830766</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:55:04</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44076.53824074074</v>
       </c>
       <c r="I312" t="n">
         <v>11</v>
@@ -23419,10 +22813,8 @@
           <t>3445802176</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:54:48</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44076.53805555555</v>
       </c>
       <c r="I313" t="n">
         <v>13</v>
@@ -23494,10 +22886,8 @@
           <t>3445901663</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:54:44</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44076.53800925926</v>
       </c>
       <c r="I314" t="n">
         <v>11</v>
@@ -23573,10 +22963,8 @@
           <t>3445781546</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:54:31</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44076.5378587963</v>
       </c>
       <c r="I315" t="n">
         <v>1</v>
@@ -23644,10 +23032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:53:52</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44076.53740740741</v>
       </c>
       <c r="I316" t="n">
         <v>4</v>
@@ -23715,10 +23101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:53:46</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44076.53733796296</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23795,10 +23179,8 @@
           <t>3445900065</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:53:27</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44076.53711805555</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23866,10 +23248,8 @@
           <t>3445898409</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:53:01</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44076.53681712963</v>
       </c>
       <c r="I319" t="n">
         <v>1</v>
@@ -23937,10 +23317,8 @@
           <t>3445889210</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:52:44</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44076.53662037037</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -24008,10 +23386,8 @@
           <t>3445771648</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:52:26</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44076.53641203704</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -24083,10 +23459,8 @@
           <t>3445888798</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:52:24</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44076.53638888889</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24150,10 +23524,8 @@
           <t>3445770996</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:52:16</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44076.5362962963</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24225,10 +23597,8 @@
           <t>3445891483</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:51:39</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44076.53586805556</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24304,10 +23674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:51:20</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44076.53564814815</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24375,10 +23743,8 @@
           <t>3445891483</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:50:51</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44076.5353125</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24454,10 +23820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:50:34</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44076.53511574074</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24535,10 +23899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:50:14</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44076.53488425926</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24610,10 +23972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:50:08</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44076.53481481481</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24685,10 +24045,8 @@
           <t>3445842637</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:49:51</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44076.53461805556</v>
       </c>
       <c r="I330" t="n">
         <v>5</v>
@@ -24760,10 +24118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:49:35</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44076.53443287037</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24835,10 +24191,8 @@
           <t>3445883888</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:49:27</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44076.53434027778</v>
       </c>
       <c r="I332" t="n">
         <v>5</v>
@@ -24906,10 +24260,8 @@
           <t>3445879863</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:49:20</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44076.53425925926</v>
       </c>
       <c r="I333" t="n">
         <v>4</v>
@@ -24985,10 +24337,8 @@
           <t>3445883276</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:48:58</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44076.53400462963</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -25064,10 +24414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:48:54</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44076.53395833333</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25139,10 +24487,8 @@
           <t>3445879026</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:48:42</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44076.53381944444</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25210,10 +24556,8 @@
           <t>3445802258</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:48:37</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44076.53376157407</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25289,10 +24633,8 @@
           <t>3445873470</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:48:22</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44076.53358796296</v>
       </c>
       <c r="I338" t="n">
         <v>6</v>
@@ -25364,10 +24706,8 @@
           <t>3445882318</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:48:11</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44076.53346064815</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25431,10 +24771,8 @@
           <t>3445872982</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:47:57</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44076.53329861111</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25510,10 +24848,8 @@
           <t>3445881837</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:47:48</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44076.53319444445</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25589,10 +24925,8 @@
           <t>3445881274</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:47:23</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44076.53290509259</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25660,10 +24994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:47:02</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44076.53266203704</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25731,10 +25063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:46:30</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44076.53229166667</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25794,10 +25124,8 @@
           <t>3445819489</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:46:09</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44076.53204861111</v>
       </c>
       <c r="I345" t="n">
         <v>2</v>
@@ -25875,10 +25203,8 @@
           <t>3445829776</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:45:50</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44076.5318287037</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -25953,10 +25279,8 @@
           <t>3445851976</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:45:09</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44076.53135416667</v>
       </c>
       <c r="I347" t="n">
         <v>1</v>
@@ -26020,10 +25344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:44:46</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44076.53108796296</v>
       </c>
       <c r="I348" t="n">
         <v>11</v>
@@ -26091,10 +25413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:44:03</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44076.53059027778</v>
       </c>
       <c r="I349" t="n">
         <v>40</v>
@@ -26170,10 +25490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:44:01</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44076.53056712963</v>
       </c>
       <c r="I350" t="n">
         <v>1</v>
@@ -26245,10 +25563,8 @@
           <t>3445842637</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:43:49</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44076.53042824074</v>
       </c>
       <c r="I351" t="n">
         <v>3</v>
@@ -26324,10 +25640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:43:27</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44076.53017361111</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -26395,10 +25709,8 @@
           <t>3445765272</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:43:03</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44076.52989583334</v>
       </c>
       <c r="I353" t="n">
         <v>3</v>
@@ -26470,10 +25782,8 @@
           <t>3445760524</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:43:02</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44076.52988425926</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26533,10 +25843,8 @@
           <t>3445865628</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:43:02</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44076.52988425926</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26600,10 +25908,8 @@
           <t>3445856536</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:42:49</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44076.5297337963</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26679,10 +25985,8 @@
           <t>3445837708</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:42:32</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44076.52953703704</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26758,10 +26062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:42:23</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44076.52943287037</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26829,10 +26131,8 @@
           <t>3445854679</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:42:17</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44076.52936342593</v>
       </c>
       <c r="I359" t="n">
         <v>4</v>
@@ -26904,10 +26204,8 @@
           <t>3445842637</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:42:16</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44076.52935185185</v>
       </c>
       <c r="I360" t="n">
         <v>29</v>
@@ -26975,10 +26273,8 @@
           <t>3445772323</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:42:06</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44076.52923611111</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -27050,10 +26346,8 @@
           <t>3445765272</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:42:00</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44076.52916666667</v>
       </c>
       <c r="I362" t="n">
         <v>2</v>
@@ -27129,10 +26423,8 @@
           <t>3445860279</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:41:58</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44076.52914351852</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -27202,10 +26494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:41:51</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44076.5290625</v>
       </c>
       <c r="I364" t="n">
         <v>4</v>
@@ -27273,10 +26563,8 @@
           <t>3445854002</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:41:46</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44076.52900462963</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27344,10 +26632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:41:38</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44076.52891203704</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27411,10 +26697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:41:27</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44076.52878472222</v>
       </c>
       <c r="I367" t="n">
         <v>1</v>
@@ -27490,10 +26774,8 @@
           <t>3445852924</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:40:57</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44076.5284375</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27561,10 +26843,8 @@
           <t>3445852337</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:40:29</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44076.52811342593</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -27628,10 +26908,8 @@
           <t>3445851976</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:40:12</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44076.52791666667</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27707,10 +26985,8 @@
           <t>3445799894</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:40:04</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44076.52782407407</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27774,10 +27050,8 @@
           <t>3445842979</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:40:00</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44076.52777777778</v>
       </c>
       <c r="I372" t="n">
         <v>14</v>
@@ -27849,10 +27123,8 @@
           <t>3445851534</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:39:51</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44076.52767361111</v>
       </c>
       <c r="I373" t="n">
         <v>1</v>
@@ -27928,10 +27200,8 @@
           <t>3445842637</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:39:43</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44076.52758101852</v>
       </c>
       <c r="I374" t="n">
         <v>12</v>
@@ -27999,10 +27269,8 @@
           <t>3445835873</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:39:33</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44076.52746527778</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -28080,10 +27348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:38:56</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44076.52703703703</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -28151,10 +27417,8 @@
           <t>3445845986</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:38:38</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44076.5268287037</v>
       </c>
       <c r="I377" t="n">
         <v>42</v>
@@ -28226,10 +27490,8 @@
           <t>3445841076</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:38:29</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44076.52672453703</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28305,10 +27567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:38:28</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44076.52671296296</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28376,10 +27636,8 @@
           <t>3445839765</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:38:26</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44076.52668981482</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28451,10 +27709,8 @@
           <t>3445845536</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:38:19</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44076.5266087963</v>
       </c>
       <c r="I381" t="n">
         <v>3</v>
@@ -28518,10 +27774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:38:15</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44076.5265625</v>
       </c>
       <c r="I382" t="n">
         <v>8</v>
@@ -28597,10 +27851,8 @@
           <t>3445729612</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:37:58</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44076.52636574074</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28676,10 +27928,8 @@
           <t>3445834695</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:37:40</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44076.52615740741</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28755,10 +28005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:37:27</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44076.52600694444</v>
       </c>
       <c r="I385" t="n">
         <v>1</v>
@@ -28826,10 +28074,8 @@
           <t>3445829776</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:37:27</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44076.52600694444</v>
       </c>
       <c r="I386" t="n">
         <v>1</v>
@@ -28901,10 +28147,8 @@
           <t>3445829176</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:36:59</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44076.52568287037</v>
       </c>
       <c r="I387" t="n">
         <v>129</v>
@@ -28976,10 +28220,8 @@
           <t>3445829119</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:36:56</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44076.52564814815</v>
       </c>
       <c r="I388" t="n">
         <v>2</v>
@@ -29051,10 +28293,8 @@
           <t>3445837708</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:36:51</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44076.52559027778</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -29132,10 +28372,8 @@
           <t>3445823904</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:36:47</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44076.52554398148</v>
       </c>
       <c r="I390" t="n">
         <v>3</v>
@@ -29211,10 +28449,8 @@
           <t>3445837580</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:36:44</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44076.52550925926</v>
       </c>
       <c r="I391" t="n">
         <v>1</v>
@@ -29282,10 +28518,8 @@
           <t>3445828731</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:36:39</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44076.52545138889</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29361,10 +28595,8 @@
           <t>3445760524</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:36:35</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44076.52540509259</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29432,10 +28664,8 @@
           <t>3445760524</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:36:30</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44076.52534722222</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29495,10 +28725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:36:06</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44076.52506944445</v>
       </c>
       <c r="I395" t="n">
         <v>1</v>
@@ -29570,10 +28798,8 @@
           <t>3445832686</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:36:06</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44076.52506944445</v>
       </c>
       <c r="I396" t="n">
         <v>2</v>
@@ -29645,10 +28871,8 @@
           <t>3445832443</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:35:56</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44076.5249537037</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29712,10 +28936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:35:55</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44076.52494212963</v>
       </c>
       <c r="I398" t="n">
         <v>1</v>
@@ -29791,10 +29013,8 @@
           <t>3445823904</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:35:29</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44076.5246412037</v>
       </c>
       <c r="I399" t="n">
         <v>3</v>
@@ -29862,10 +29082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:35:26</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44076.52460648148</v>
       </c>
       <c r="I400" t="n">
         <v>3</v>
@@ -29929,10 +29147,8 @@
           <t>3445799894</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:35:26</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44076.52460648148</v>
       </c>
       <c r="I401" t="n">
         <v>6</v>
@@ -30000,10 +29216,8 @@
           <t>3445835873</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:35:24</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44076.52458333333</v>
       </c>
       <c r="I402" t="n">
         <v>1</v>
@@ -30075,10 +29289,8 @@
           <t>3445765272</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:35:23</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44076.52457175926</v>
       </c>
       <c r="I403" t="n">
         <v>14</v>
@@ -30146,10 +29358,8 @@
           <t>3445760524</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:35:00</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44076.52430555555</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30209,10 +29419,8 @@
           <t>3445830766</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:34:37</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44076.52403935185</v>
       </c>
       <c r="I405" t="n">
         <v>23</v>
@@ -30288,10 +29496,8 @@
           <t>3445830480</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:34:24</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44076.52388888889</v>
       </c>
       <c r="I406" t="n">
         <v>3</v>
@@ -30355,10 +29561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:34:13</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44076.52376157408</v>
       </c>
       <c r="I407" t="n">
         <v>1</v>
@@ -30434,10 +29638,8 @@
           <t>3445824225</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:34:06</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44076.52368055555</v>
       </c>
       <c r="I408" t="n">
         <v>2</v>
@@ -30516,10 +29718,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:34:05</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44076.52366898148</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -30595,10 +29795,8 @@
           <t>3445799894</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:33:53</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44076.52353009259</v>
       </c>
       <c r="I410" t="n">
         <v>5</v>
@@ -30671,10 +29869,8 @@
           <t>3445823904</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:33:51</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44076.52350694445</v>
       </c>
       <c r="I411" t="n">
         <v>1</v>
@@ -30750,10 +29946,8 @@
           <t>3445819555</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:33:42</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44076.52340277778</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30825,10 +30019,8 @@
           <t>3445819489</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:33:39</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44076.52336805555</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30892,10 +30084,8 @@
           <t>3445819428</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:33:36</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44076.52333333333</v>
       </c>
       <c r="I414" t="n">
         <v>1</v>
@@ -30974,10 +30164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:33:33</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44076.52329861111</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -31041,10 +30229,8 @@
           <t>3445814836</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:33:30</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44076.52326388889</v>
       </c>
       <c r="I416" t="n">
         <v>6</v>
@@ -31112,10 +30298,8 @@
           <t>3445814807</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:33:29</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44076.52325231482</v>
       </c>
       <c r="I417" t="n">
         <v>1</v>
@@ -31191,10 +30375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:33:18</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44076.523125</v>
       </c>
       <c r="I418" t="n">
         <v>1</v>
@@ -31262,10 +30444,8 @@
           <t>3445823238</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:33:18</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44076.523125</v>
       </c>
       <c r="I419" t="n">
         <v>1</v>
@@ -31333,10 +30513,8 @@
           <t>3445813918</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:32:45</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44076.52274305555</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31408,10 +30586,8 @@
           <t>3445818144</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:32:36</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44076.52263888889</v>
       </c>
       <c r="I421" t="n">
         <v>2</v>
@@ -31487,10 +30663,8 @@
           <t>3445813639</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:32:31</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44076.52258101852</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31558,10 +30732,8 @@
           <t>3445822205</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:32:29</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44076.52255787037</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31637,10 +30809,8 @@
           <t>3445821911</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:32:17</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44076.52241898148</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31712,10 +30882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:32:02</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44076.52224537037</v>
       </c>
       <c r="I425" t="n">
         <v>1</v>
@@ -31779,10 +30947,8 @@
           <t>3445812298</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:31:27</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44076.52184027778</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31855,10 +31021,8 @@
           <t>3445812215</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:31:22</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44076.52178240741</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31931,10 +31095,8 @@
           <t>3445811413</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:31:10</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44076.52164351852</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -32007,10 +31169,8 @@
           <t>3445760524</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:31:07</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44076.5216087963</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -32078,10 +31238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:30:57</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44076.52149305555</v>
       </c>
       <c r="I430" t="n">
         <v>21</v>
@@ -32157,10 +31315,8 @@
           <t>3445783529</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:30:48</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44076.52138888889</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -32228,10 +31384,8 @@
           <t>3445809948</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:30:46</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44076.52136574074</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32307,10 +31461,8 @@
           <t>3445811413</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:30:43</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44076.52133101852</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32383,10 +31535,8 @@
           <t>3445799894</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:30:41</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44076.52130787037</v>
       </c>
       <c r="I434" t="n">
         <v>24</v>
@@ -32450,10 +31600,8 @@
           <t>3445809624</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:30:31</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44076.52119212963</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32529,10 +31677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:30:23</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44076.52109953704</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32600,10 +31746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:29:58</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44076.52081018518</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32675,10 +31819,8 @@
           <t>3445810476</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:29:58</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44076.52081018518</v>
       </c>
       <c r="I438" t="n">
         <v>1</v>
@@ -32742,10 +31884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:29:53</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44076.52075231481</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32818,10 +31958,8 @@
           <t>3445760524</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:29:51</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44076.52072916667</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32893,10 +32031,8 @@
           <t>3445799894</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:29:30</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44076.52048611111</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32972,10 +32108,8 @@
           <t>3445807944</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:29:12</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44076.52027777778</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -33047,10 +32181,8 @@
           <t>3445754979</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:29:08</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44076.52023148148</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -33118,10 +32250,8 @@
           <t>3445781546</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:29:04</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44076.52018518518</v>
       </c>
       <c r="I444" t="n">
         <v>1</v>
@@ -33194,10 +32324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:28:32</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44076.51981481481</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -33265,10 +32393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:28:23</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44076.51971064815</v>
       </c>
       <c r="I446" t="n">
         <v>349</v>
@@ -33344,10 +32470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:28:16</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44076.51962962963</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33419,10 +32543,8 @@
           <t>3445802258</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:28:05</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44076.51950231481</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33494,10 +32616,8 @@
           <t>3445765272</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:28:04</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44076.51949074074</v>
       </c>
       <c r="I449" t="n">
         <v>1</v>
@@ -33573,10 +32693,8 @@
           <t>3445802176</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:28:01</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44076.51945601852</v>
       </c>
       <c r="I450" t="n">
         <v>1</v>
@@ -33644,10 +32762,8 @@
           <t>3445781546</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:27:59</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44076.51943287037</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33711,10 +32827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:27:45</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44076.51927083333</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33782,10 +32896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:27:22</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44076.51900462963</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33861,10 +32973,8 @@
           <t>3445800514</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:26:43</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44076.51855324074</v>
       </c>
       <c r="I454" t="n">
         <v>11</v>
@@ -33924,10 +33034,8 @@
           <t>3445769331</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:26:43</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44076.51855324074</v>
       </c>
       <c r="I455" t="n">
         <v>1</v>
@@ -34000,10 +33108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:26:37</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44076.5184837963</v>
       </c>
       <c r="I456" t="n">
         <v>5</v>
@@ -34075,10 +33181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:26:31</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44076.51841435185</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -34151,10 +33255,8 @@
           <t>3445760524</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:26:27</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44076.51836805556</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -34222,10 +33324,8 @@
           <t>3445796048</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:26:19</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44076.51827546296</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -34285,10 +33385,8 @@
           <t>3445792789</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:26:12</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44076.51819444444</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34360,10 +33458,8 @@
           <t>3445742932</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:26:08</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44076.51814814815</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34439,10 +33535,8 @@
           <t>3445769331</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:25:46</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44076.51789351852</v>
       </c>
       <c r="I462" t="n">
         <v>1</v>
@@ -34506,10 +33600,8 @@
           <t>3445792789</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:25:35</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44076.5177662037</v>
       </c>
       <c r="I463" t="n">
         <v>1</v>
@@ -34581,10 +33673,8 @@
           <t>3445781546</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:25:31</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44076.51771990741</v>
       </c>
       <c r="I464" t="n">
         <v>1</v>
@@ -34657,10 +33747,8 @@
           <t>3445784968</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:25:27</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44076.51767361111</v>
       </c>
       <c r="I465" t="n">
         <v>37</v>
@@ -34720,10 +33808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:25:18</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44076.51756944445</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34791,10 +33877,8 @@
           <t>3445754979</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:25:15</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44076.51753472222</v>
       </c>
       <c r="I467" t="n">
         <v>2</v>
@@ -34870,10 +33954,8 @@
           <t>3445781546</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:25:13</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44076.51751157407</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34946,10 +34028,8 @@
           <t>3445792789</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:25:12</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44076.5175</v>
       </c>
       <c r="I469" t="n">
         <v>1</v>
@@ -35022,10 +34102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:25:05</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44076.51741898148</v>
       </c>
       <c r="I470" t="n">
         <v>18</v>
@@ -35101,10 +34179,8 @@
           <t>3445760524</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:24:57</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44076.51732638889</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -35172,10 +34248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:24:52</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44076.51726851852</v>
       </c>
       <c r="I472" t="n">
         <v>2</v>
@@ -35247,10 +34321,8 @@
           <t>3445765272</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:24:42</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44076.51715277778</v>
       </c>
       <c r="I473" t="n">
         <v>86</v>
@@ -35318,10 +34390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:24:38</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44076.51710648148</v>
       </c>
       <c r="I474" t="n">
         <v>2</v>
@@ -35397,10 +34467,8 @@
           <t>3445781546</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:24:36</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44076.51708333333</v>
       </c>
       <c r="I475" t="n">
         <v>2</v>
@@ -35468,10 +34536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:24:26</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44076.51696759259</v>
       </c>
       <c r="I476" t="n">
         <v>3</v>
@@ -35539,10 +34605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:24:20</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44076.51689814815</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35610,10 +34674,8 @@
           <t>3445783529</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:24:16</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44076.51685185185</v>
       </c>
       <c r="I478" t="n">
         <v>3</v>
@@ -35681,10 +34743,8 @@
           <t>3445749926</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:24:14</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44076.5168287037</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35752,10 +34812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:24:08</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44076.51675925926</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35823,10 +34881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:24:06</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44076.51673611111</v>
       </c>
       <c r="I481" t="n">
         <v>10</v>
@@ -35898,10 +34954,8 @@
           <t>3445772323</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:23:24</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44076.51625</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35969,10 +35023,8 @@
           <t>3445763171</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:23:16</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44076.51615740741</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -36040,10 +35092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:23:02</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44076.51599537037</v>
       </c>
       <c r="I484" t="n">
         <v>2</v>
@@ -36119,10 +35169,8 @@
           <t>3445779837</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:22:56</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44076.51592592592</v>
       </c>
       <c r="I485" t="n">
         <v>1</v>
@@ -36194,10 +35242,8 @@
           <t>3445760524</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:22:46</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44076.51581018518</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -36261,10 +35307,8 @@
           <t>3445781546</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:22:39</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44076.51572916667</v>
       </c>
       <c r="I487" t="n">
         <v>4</v>
@@ -36329,10 +35373,8 @@
           <t>3445754979</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:22:18</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44076.51548611111</v>
       </c>
       <c r="I488" t="n">
         <v>4</v>
@@ -36405,10 +35447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:22:06</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44076.51534722222</v>
       </c>
       <c r="I489" t="n">
         <v>2</v>
@@ -36480,10 +35520,8 @@
           <t>3445774432</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:22:02</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44076.51530092592</v>
       </c>
       <c r="I490" t="n">
         <v>1</v>
@@ -36547,10 +35585,8 @@
           <t>3445769331</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:21:58</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44076.51525462963</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36623,10 +35659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:21:54</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44076.51520833333</v>
       </c>
       <c r="I492" t="n">
         <v>2</v>
@@ -36698,10 +35732,8 @@
           <t>3445774062</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:21:44</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44076.51509259259</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36774,10 +35806,8 @@
           <t>3445763171</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:21:43</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44076.51508101852</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36849,10 +35879,8 @@
           <t>3445769903</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:21:22</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44076.51483796296</v>
       </c>
       <c r="I495" t="n">
         <v>1</v>
@@ -36916,10 +35944,8 @@
           <t>3445773191</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:21:03</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44076.51461805555</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36992,10 +36018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:20:57</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44076.51454861111</v>
       </c>
       <c r="I497" t="n">
         <v>2</v>
@@ -37071,10 +36095,8 @@
           <t>3445769331</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:20:55</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44076.51452546296</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -37138,10 +36160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:20:53</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44076.51450231481</v>
       </c>
       <c r="I499" t="n">
         <v>2</v>
@@ -37213,10 +36233,8 @@
           <t>3445769049</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:20:40</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44076.51435185185</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -37292,10 +36310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:20:27</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44076.51420138889</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -37363,10 +36379,8 @@
           <t>3445776612</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:20:24</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44076.51416666667</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -37434,10 +36448,8 @@
           <t>3445772323</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:20:22</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44076.51414351852</v>
       </c>
       <c r="I503" t="n">
         <v>4</v>
@@ -37505,10 +36517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:20:14</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44076.51405092593</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37576,10 +36586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:20:14</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44076.51405092593</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37651,10 +36659,8 @@
           <t>3445742932</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:20:06</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44076.51395833334</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37726,10 +36732,8 @@
           <t>3445771648</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:19:51</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44076.51378472222</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37797,10 +36801,8 @@
           <t>3445767707</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:19:37</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44076.51362268518</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37876,10 +36878,8 @@
           <t>3445770996</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:19:20</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44076.51342592593</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37947,10 +36947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:18:56</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44076.51314814815</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -38026,10 +37024,8 @@
           <t>3445766762</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:18:52</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44076.51310185185</v>
       </c>
       <c r="I511" t="n">
         <v>34</v>
@@ -38102,10 +37098,8 @@
           <t>3445764365</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:18:41</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44076.51297453704</v>
       </c>
       <c r="I512" t="n">
         <v>10</v>
@@ -38173,10 +37167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:18:20</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44076.51273148148</v>
       </c>
       <c r="I513" t="n">
         <v>2</v>
@@ -38244,10 +37236,8 @@
           <t>3445765813</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:18:04</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44076.5125462963</v>
       </c>
       <c r="I514" t="n">
         <v>8</v>
@@ -38315,10 +37305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:17:53</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44076.51241898148</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -38390,10 +37378,8 @@
           <t>3445749926</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:17:53</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44076.51241898148</v>
       </c>
       <c r="I516" t="n">
         <v>1</v>
@@ -38465,10 +37451,8 @@
           <t>3445763411</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:17:52</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44076.5124074074</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38544,10 +37528,8 @@
           <t>3445763390</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:17:51</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44076.51239583334</v>
       </c>
       <c r="I518" t="n">
         <v>4</v>
@@ -38619,10 +37601,8 @@
           <t>3445749926</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:17:44</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44076.51231481481</v>
       </c>
       <c r="I519" t="n">
         <v>4</v>
@@ -38694,10 +37674,8 @@
           <t>3445763171</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:17:40</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44076.51226851852</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38765,10 +37743,8 @@
           <t>3445765272</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:17:37</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44076.5122337963</v>
       </c>
       <c r="I521" t="n">
         <v>5</v>
@@ -38844,10 +37820,8 @@
           <t>3445765187</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:17:34</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44076.51219907407</v>
       </c>
       <c r="I522" t="n">
         <v>9</v>
@@ -38911,10 +37885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:17:27</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44076.51211805556</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38982,10 +37954,8 @@
           <t>3445765052</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:17:27</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44076.51211805556</v>
       </c>
       <c r="I524" t="n">
         <v>1</v>
@@ -39061,10 +38031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:17:25</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44076.5120949074</v>
       </c>
       <c r="I525" t="n">
         <v>2</v>
@@ -39128,10 +38096,8 @@
           <t>3445749926</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:17:24</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44076.51208333333</v>
       </c>
       <c r="I526" t="n">
         <v>1</v>
@@ -39199,10 +38165,8 @@
           <t>3445762800</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:17:23</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44076.51207175926</v>
       </c>
       <c r="I527" t="n">
         <v>22</v>
@@ -39278,10 +38242,8 @@
           <t>3445754979</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:17:23</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44076.51207175926</v>
       </c>
       <c r="I528" t="n">
         <v>3</v>
@@ -39349,10 +38311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:17:21</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44076.51204861111</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -39420,10 +38380,8 @@
           <t>3445754920</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:17:20</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44076.51203703704</v>
       </c>
       <c r="I530" t="n">
         <v>15</v>
@@ -39483,10 +38441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:17:09</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44076.51190972222</v>
       </c>
       <c r="I531" t="n">
         <v>37</v>
@@ -39558,10 +38514,8 @@
           <t>3445758229</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:17:06</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44076.511875</v>
       </c>
       <c r="I532" t="n">
         <v>2</v>
@@ -39637,10 +38591,8 @@
           <t>3445729612</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:16:20</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44076.5113425926</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39716,10 +38668,8 @@
           <t>3445742932</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:16:14</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44076.51127314815</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39787,10 +38737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:16:06</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44076.51118055556</v>
       </c>
       <c r="I535" t="n">
         <v>2</v>
@@ -39866,10 +38814,8 @@
           <t>3445729612</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:16:05</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44076.51116898148</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39941,10 +38887,8 @@
           <t>3445745764</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:15:58</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44076.51108796296</v>
       </c>
       <c r="I537" t="n">
         <v>48</v>
@@ -40020,10 +38964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:15:56</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44076.51106481482</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -40093,10 +39035,8 @@
           <t>3445760524</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:15:36</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44076.51083333333</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -40165,10 +39105,8 @@
           <t>3445760468</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:15:33</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44076.51079861111</v>
       </c>
       <c r="I540" t="n">
         <v>8</v>
@@ -40247,10 +39185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:15:31</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44076.51077546296</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -40318,10 +39254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:15:29</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44076.51075231482</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -40385,10 +39319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:15:29</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44076.51075231482</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -40457,10 +39389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:15:26</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44076.5107175926</v>
       </c>
       <c r="I544" t="n">
         <v>2</v>
@@ -40536,10 +39466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:15:24</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44076.51069444444</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40607,10 +39535,8 @@
           <t>3445749926</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:15:08</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44076.51050925926</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40682,10 +39608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:14:59</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44076.51040509259</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40749,10 +39673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:14:58</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44076.51039351852</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40816,10 +39738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:14:54</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44076.51034722223</v>
       </c>
       <c r="I549" t="n">
         <v>55</v>
@@ -40895,10 +39815,8 @@
           <t>3445751062</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:14:10</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44076.50983796296</v>
       </c>
       <c r="I550" t="n">
         <v>2</v>
@@ -40974,10 +39892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:14:08</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44076.50981481482</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -41053,10 +39969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:13:59</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44076.50971064815</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -41132,10 +40046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:13:51</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44076.50961805556</v>
       </c>
       <c r="I553" t="n">
         <v>12</v>
@@ -41199,10 +40111,8 @@
           <t>3445729612</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:13:38</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44076.50946759259</v>
       </c>
       <c r="I554" t="n">
         <v>1</v>
@@ -41270,10 +40180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:13:33</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44076.50940972222</v>
       </c>
       <c r="I555" t="n">
         <v>1</v>
@@ -41341,10 +40249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:13:27</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44076.50934027778</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -41414,10 +40320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:13:24</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44076.50930555556</v>
       </c>
       <c r="I557" t="n">
         <v>781</v>
@@ -41477,10 +40381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:13:16</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44076.50921296296</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -41552,10 +40454,8 @@
           <t>3445742932</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:13:15</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44076.50920138889</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41627,10 +40527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:13:06</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44076.50909722222</v>
       </c>
       <c r="I560" t="n">
         <v>2</v>
@@ -41702,10 +40600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:13:00</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44076.50902777778</v>
       </c>
       <c r="I561" t="n">
         <v>4</v>
@@ -41769,10 +40665,8 @@
           <t>3445742932</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:12:55</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44076.50896990741</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41844,10 +40738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:12:54</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44076.50895833333</v>
       </c>
       <c r="I563" t="n">
         <v>7</v>
@@ -41915,10 +40807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:12:49</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44076.50890046296</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41982,10 +40872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:12:40</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44076.50879629629</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -42053,10 +40941,8 @@
           <t>3445746774</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:12:36</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44076.50875</v>
       </c>
       <c r="I566" t="n">
         <v>2</v>
@@ -42128,10 +41014,8 @@
           <t>3445746755</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:12:35</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44076.50873842592</v>
       </c>
       <c r="I567" t="n">
         <v>4</v>
@@ -42199,10 +41083,8 @@
           <t>3445734898</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:12:29</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44076.50866898148</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -42274,10 +41156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:12:25</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44076.50862268519</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -42353,10 +41233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:12:23</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44076.50859953704</v>
       </c>
       <c r="I570" t="n">
         <v>106</v>
@@ -42428,10 +41306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:12:18</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44076.50854166667</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -42504,10 +41380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:12:18</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44076.50854166667</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -42579,10 +41453,8 @@
           <t>3445746386</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:12:16</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44076.50851851852</v>
       </c>
       <c r="I573" t="n">
         <v>14</v>
@@ -42658,10 +41530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:12:11</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44076.50846064815</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42733,10 +41603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:11:56</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44076.50828703704</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42808,10 +41676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:11:54</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44076.50826388889</v>
       </c>
       <c r="I576" t="n">
         <v>1</v>
@@ -42887,10 +41753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:11:54</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44076.50826388889</v>
       </c>
       <c r="I577" t="n">
         <v>2</v>
@@ -42950,10 +41814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:11:50</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44076.50821759259</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -43025,10 +41887,8 @@
           <t>3445745764</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:11:47</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44076.50818287037</v>
       </c>
       <c r="I579" t="n">
         <v>2</v>
@@ -43100,10 +41960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:11:34</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44076.50803240741</v>
       </c>
       <c r="I580" t="n">
         <v>3</v>
@@ -43179,10 +42037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:11:34</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44076.50803240741</v>
       </c>
       <c r="I581" t="n">
         <v>27</v>
@@ -43261,10 +42117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:11:31</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44076.50799768518</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -43340,10 +42194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:11:31</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44076.50799768518</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -43407,10 +42259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:11:30</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44076.50798611111</v>
       </c>
       <c r="I584" t="n">
         <v>1</v>
@@ -43486,10 +42336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:11:25</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44076.50792824074</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -43557,10 +42405,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:11:21</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44076.50788194445</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -43624,10 +42470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:11:13</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44076.50778935185</v>
       </c>
       <c r="I587" t="n">
         <v>18</v>
@@ -43699,10 +42543,8 @@
           <t>3445740842</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:11:10</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44076.50775462963</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -43766,10 +42608,8 @@
           <t>3445734898</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:11:06</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44076.50770833333</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43837,10 +42677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:11:02</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44076.50766203704</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -43908,10 +42746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:10:57</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44076.50760416667</v>
       </c>
       <c r="I591" t="n">
         <v>8</v>
@@ -43977,10 +42813,8 @@
           <t>3445740553</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:10:55</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44076.50758101852</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -44048,10 +42882,8 @@
           <t>3445737095</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:10:51</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44076.50753472222</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -44111,10 +42943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:10:48</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44076.5075</v>
       </c>
       <c r="I594" t="n">
         <v>502</v>
@@ -44187,10 +43017,8 @@
           <t>3445734523</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:10:47</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44076.50748842592</v>
       </c>
       <c r="I595" t="n">
         <v>1</v>
@@ -44258,10 +43086,8 @@
           <t>3445737006</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:10:46</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44076.50747685185</v>
       </c>
       <c r="I596" t="n">
         <v>13</v>
@@ -44337,10 +43163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:10:40</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44076.50740740741</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
@@ -44412,10 +43236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:10:39</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44076.50739583333</v>
       </c>
       <c r="I598" t="n">
         <v>2</v>
@@ -44483,10 +43305,8 @@
           <t>3445734308</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:10:37</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44076.50737268518</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -44554,10 +43374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:10:34</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44076.50733796296</v>
       </c>
       <c r="I600" t="n">
         <v>72</v>
@@ -44633,10 +43451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:10:29</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44076.50728009259</v>
       </c>
       <c r="I601" t="n">
         <v>2</v>
@@ -44708,10 +43524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:10:28</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44076.50726851852</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
@@ -44787,10 +43601,8 @@
           <t>3445734121</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:10:27</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44076.50725694445</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44862,10 +43674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:10:26</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44076.50724537037</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -44937,10 +43747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:10:25</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44076.5072337963</v>
       </c>
       <c r="I605" t="n">
         <v>5</v>
@@ -45004,10 +43812,8 @@
           <t>3445733974</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:10:21</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44076.5071875</v>
       </c>
       <c r="I606" t="n">
         <v>7</v>
@@ -45075,10 +43881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:10:18</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44076.50715277778</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
@@ -45142,10 +43946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:10:15</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44076.50711805555</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -45217,10 +44019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:10:14</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44076.50710648148</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
@@ -45284,10 +44084,8 @@
           <t>3445729612</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:10:10</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44076.50706018518</v>
       </c>
       <c r="I610" t="n">
         <v>37</v>
@@ -45363,10 +44161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:10:07</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44076.50702546296</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -45430,10 +44226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:10:03</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44076.50697916667</v>
       </c>
       <c r="I612" t="n">
         <v>333</v>
@@ -45501,10 +44295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:10:00</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44076.50694444445</v>
       </c>
       <c r="I613" t="n">
         <v>22</v>
@@ -45576,10 +44368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:10:00</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44076.50694444445</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -45651,10 +44441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:09:59</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44076.50693287037</v>
       </c>
       <c r="I615" t="n">
         <v>6</v>
@@ -45726,10 +44514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:09:58</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44076.5069212963</v>
       </c>
       <c r="I616" t="n">
         <v>2</v>
@@ -45797,10 +44583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:09:50</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44076.50682870371</v>
       </c>
       <c r="I617" t="n">
         <v>9</v>
@@ -45868,10 +44652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:09:43</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44076.50674768518</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
@@ -45943,10 +44725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:09:36</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44076.50666666667</v>
       </c>
       <c r="I619" t="n">
         <v>381</v>
@@ -46014,10 +44794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:09:31</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44076.5066087963</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
@@ -46089,10 +44867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:09:30</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44076.50659722222</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
@@ -46164,10 +44940,8 @@
           <t>3445728754</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:09:28</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44076.50657407408</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
@@ -46235,10 +45009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:09:28</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44076.50657407408</v>
       </c>
       <c r="I623" t="n">
         <v>627</v>
@@ -46306,10 +45078,8 @@
           <t>3445728631</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:09:22</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44076.50650462963</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
@@ -46373,10 +45143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:09:14</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44076.50641203704</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
@@ -46444,10 +45212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:09:08</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44076.50634259259</v>
       </c>
       <c r="I626" t="n">
         <v>73</v>
@@ -46523,10 +45289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:09:07</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44076.50633101852</v>
       </c>
       <c r="I627" t="n">
         <v>4</v>
@@ -46602,10 +45366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:09:03</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44076.50628472222</v>
       </c>
       <c r="I628" t="n">
         <v>2</v>
@@ -46673,10 +45435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:08:59</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44076.50623842593</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
@@ -46744,10 +45504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:08:59</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44076.50623842593</v>
       </c>
       <c r="I630" t="n">
         <v>1</v>
@@ -46815,10 +45573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:08:55</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44076.50619212963</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
@@ -46886,10 +45642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:08:54</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44076.50618055555</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
@@ -46961,10 +45715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:08:54</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44076.50618055555</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
@@ -47036,10 +45788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:08:54</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44076.50618055555</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
@@ -47107,10 +45857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:08:53</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44076.50616898148</v>
       </c>
       <c r="I635" t="n">
         <v>2</v>
@@ -47174,10 +45922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:08:46</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44076.50608796296</v>
       </c>
       <c r="I636" t="n">
         <v>2</v>
@@ -47245,10 +45991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:08:45</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44076.50607638889</v>
       </c>
       <c r="I637" t="n">
         <v>42</v>
@@ -47316,10 +46060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:08:42</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44076.50604166667</v>
       </c>
       <c r="I638" t="n">
         <v>2</v>
@@ -47383,10 +46125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:08:41</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44076.50603009259</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
@@ -47450,10 +46190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:08:37</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44076.5059837963</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
@@ -47521,10 +46259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:08:33</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44076.5059375</v>
       </c>
       <c r="I641" t="n">
         <v>17</v>
@@ -47588,10 +46324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:08:32</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44076.50592592593</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
@@ -47663,10 +46397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:08:31</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44076.50591435185</v>
       </c>
       <c r="I643" t="n">
         <v>1</v>
@@ -47730,10 +46462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:08:31</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44076.50591435185</v>
       </c>
       <c r="I644" t="n">
         <v>3</v>
@@ -47801,10 +46531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:08:27</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44076.50586805555</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
@@ -47864,10 +46592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:08:27</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44076.50586805555</v>
       </c>
       <c r="I646" t="n">
         <v>2</v>
@@ -47931,10 +46657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:08:26</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44076.50585648148</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
@@ -48010,10 +46734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:08:25</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44076.50584490741</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
@@ -48077,10 +46799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:08:24</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44076.50583333334</v>
       </c>
       <c r="I649" t="n">
         <v>109</v>
@@ -48144,10 +46864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:08:22</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44076.50581018518</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
@@ -48219,10 +46937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:08:19</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44076.50577546296</v>
       </c>
       <c r="I651" t="n">
         <v>2</v>
@@ -48290,10 +47006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:08:14</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44076.50571759259</v>
       </c>
       <c r="I652" t="n">
         <v>0</v>
